--- a/ZS6/Data structures/07-matrix_experiment/data.xlsx
+++ b/ZS6/Data structures/07-matrix_experiment/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\mff\ZS6\Data structures\07-matrix_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECE2E65-6051-4227-A647-023A44573D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE56CBF-CE12-48A7-AA71-3E18442041A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5490" windowWidth="38640" windowHeight="21840" xr2:uid="{6C07BFD5-C81D-4718-808E-1CC918A8B356}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{6C07BFD5-C81D-4718-808E-1CC918A8B356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -134,12 +134,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1584,7 +1578,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-4320000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-4320000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1615,8 +1609,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="3.5592581203367488E-2"/>
-              <c:y val="0.11134232121155489"/>
+              <c:x val="2.0872931437228265E-2"/>
+              <c:y val="0.23805314536470271"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1628,7 +1622,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-4320000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="-4320000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -2377,8 +2371,8 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>13854</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2705,20 +2699,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6795B8E5-F50A-41AF-B2AE-5709F4657F9C}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="X34" sqref="X34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.21875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="8.21875" style="6" customWidth="1"/>
     <col min="2" max="2" width="8.21875" style="3" customWidth="1"/>
     <col min="3" max="9" width="8.21875" style="2" customWidth="1"/>
     <col min="10" max="16384" width="6.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="9">
+      <c r="B1" s="7">
         <v>1024</v>
       </c>
       <c r="C1" s="1">
@@ -2744,7 +2738,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9">
+      <c r="B2" s="7">
         <v>16</v>
       </c>
       <c r="C2" s="1">
@@ -2769,63 +2763,63 @@
         <v>4096</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="10" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="1:9" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="10" t="s">
+      <c r="G3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+      <c r="A4" s="6">
         <v>32</v>
       </c>
-      <c r="B4" s="6">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="A5" s="6">
         <v>45</v>
       </c>
       <c r="B5" s="4">
@@ -2834,27 +2828,27 @@
       <c r="C5" s="5">
         <v>9.0404040404040403E-2</v>
       </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="A6" s="6">
         <v>64</v>
       </c>
       <c r="B6" s="4">
@@ -2863,27 +2857,27 @@
       <c r="C6" s="5">
         <v>6.3492063492063405E-2</v>
       </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+      <c r="A7" s="6">
         <v>90</v>
       </c>
       <c r="B7" s="4">
@@ -2892,27 +2886,27 @@
       <c r="C7" s="5">
         <v>9.7378277153557999E-2</v>
       </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+      <c r="A8" s="6">
         <v>128</v>
       </c>
       <c r="B8" s="4">
@@ -2927,21 +2921,21 @@
       <c r="E8" s="5">
         <v>1.5748031496062902E-2</v>
       </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+      <c r="A9" s="6">
         <v>181</v>
       </c>
       <c r="B9" s="4">
@@ -2956,21 +2950,21 @@
       <c r="E9" s="5">
         <v>3.2412523020257801E-2</v>
       </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+      <c r="A10" s="6">
         <v>256</v>
       </c>
       <c r="B10" s="4">
@@ -2985,21 +2979,21 @@
       <c r="E10" s="5">
         <v>1.5686274509803901E-2</v>
       </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+      <c r="A11" s="6">
         <v>362</v>
       </c>
       <c r="B11" s="4">
@@ -3028,7 +3022,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+      <c r="A12" s="6">
         <v>512</v>
       </c>
       <c r="B12" s="4">
@@ -3057,7 +3051,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+      <c r="A13" s="6">
         <v>724</v>
       </c>
       <c r="B13" s="4">
@@ -3086,7 +3080,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
+      <c r="A14" s="6">
         <v>1024</v>
       </c>
       <c r="B14" s="4">
@@ -3115,7 +3109,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
+      <c r="A15" s="6">
         <v>1448</v>
       </c>
       <c r="B15" s="4">
@@ -3144,7 +3138,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
+      <c r="A16" s="6">
         <v>2048</v>
       </c>
       <c r="B16" s="4">
@@ -3173,7 +3167,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+      <c r="A17" s="6">
         <v>2896</v>
       </c>
       <c r="B17" s="4">
@@ -3202,7 +3196,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
+      <c r="A18" s="6">
         <v>4096</v>
       </c>
       <c r="B18" s="4">
